--- a/toy/toydataset.xlsx
+++ b/toy/toydataset.xlsx
@@ -5,17 +5,17 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Dropbox\Aplicativos\ShareLaTeX\2018-10a-ESA-stmotifs-seismic\experiments\toy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\OneDrive - cefet-rj.br\Git\CSA\toy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777DC9AC-9413-48EC-B04F-CDCC306F11D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{777DC9AC-9413-48EC-B04F-CDCC306F11D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{D2D09910-F252-4DDC-B91E-6663FE20F5AB}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="465" windowWidth="27855" windowHeight="17535" tabRatio="709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11640" yWindow="465" windowWidth="27855" windowHeight="17535" tabRatio="709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dev" sheetId="19" r:id="rId1"/>
-    <sheet name="Versao5-SAX" sheetId="15" r:id="rId2"/>
-    <sheet name="Versao5-TOYTranspo" sheetId="18" r:id="rId3"/>
+    <sheet name="data" sheetId="15" r:id="rId1"/>
+    <sheet name="data-transposed" sheetId="18" r:id="rId2"/>
+    <sheet name="dev" sheetId="19" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
@@ -747,6 +747,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,9 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="247">
@@ -2189,1737 +2189,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DBB3C6-5C92-414D-95CD-BACA3F7BEDEF}">
-  <dimension ref="A1:AD32"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="4.28515625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" style="18" customWidth="1"/>
-    <col min="15" max="17" width="4.7109375" style="19" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" style="19" customWidth="1"/>
-    <col min="19" max="30" width="3.7109375" style="18" customWidth="1"/>
-    <col min="31" max="16384" width="8.85546875" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" s="13" customFormat="1">
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="16">
-        <v>1</v>
-      </c>
-      <c r="T2" s="16">
-        <v>1</v>
-      </c>
-      <c r="U2" s="16">
-        <v>1</v>
-      </c>
-      <c r="V2" s="16">
-        <v>1</v>
-      </c>
-      <c r="W2" s="16">
-        <v>1</v>
-      </c>
-      <c r="X2" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="16">
-        <v>1</v>
-      </c>
-      <c r="T3" s="16">
-        <v>1</v>
-      </c>
-      <c r="U3" s="16">
-        <v>1</v>
-      </c>
-      <c r="V3" s="16">
-        <v>1</v>
-      </c>
-      <c r="W3" s="16">
-        <v>1</v>
-      </c>
-      <c r="X3" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="16">
-        <v>1</v>
-      </c>
-      <c r="T4" s="16">
-        <v>1</v>
-      </c>
-      <c r="U4" s="16">
-        <v>1</v>
-      </c>
-      <c r="V4" s="16">
-        <v>1</v>
-      </c>
-      <c r="W4" s="16">
-        <v>1</v>
-      </c>
-      <c r="X4" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="16">
-        <v>1</v>
-      </c>
-      <c r="T5" s="16">
-        <v>1</v>
-      </c>
-      <c r="U5" s="16">
-        <v>1</v>
-      </c>
-      <c r="V5" s="16">
-        <v>1</v>
-      </c>
-      <c r="W5" s="16">
-        <v>1</v>
-      </c>
-      <c r="X5" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="16">
-        <v>1</v>
-      </c>
-      <c r="T6" s="16">
-        <v>1</v>
-      </c>
-      <c r="U6" s="16">
-        <v>1</v>
-      </c>
-      <c r="V6" s="16">
-        <v>1</v>
-      </c>
-      <c r="W6" s="16">
-        <v>1</v>
-      </c>
-      <c r="X6" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="16">
-        <v>1</v>
-      </c>
-      <c r="T7" s="16">
-        <v>1</v>
-      </c>
-      <c r="U7" s="16">
-        <v>1</v>
-      </c>
-      <c r="V7" s="16">
-        <v>1</v>
-      </c>
-      <c r="W7" s="16">
-        <v>1</v>
-      </c>
-      <c r="X7" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="19">
-        <f>SUMIF(B2:M21,"a",S2:AD21)</f>
-        <v>48</v>
-      </c>
-      <c r="Q8" s="19">
-        <f>48-P8</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="16">
-        <v>1</v>
-      </c>
-      <c r="T8" s="16">
-        <v>1</v>
-      </c>
-      <c r="U8" s="16">
-        <v>1</v>
-      </c>
-      <c r="V8" s="16">
-        <v>1</v>
-      </c>
-      <c r="W8" s="16">
-        <v>1</v>
-      </c>
-      <c r="X8" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="19">
-        <f>SUMIF(B2:M21,"b",S2:AD21)</f>
-        <v>48</v>
-      </c>
-      <c r="Q9" s="19">
-        <f t="shared" ref="Q9:Q12" si="0">48-P9</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="16">
-        <v>1</v>
-      </c>
-      <c r="T9" s="16">
-        <v>1</v>
-      </c>
-      <c r="U9" s="16">
-        <v>1</v>
-      </c>
-      <c r="V9" s="16">
-        <v>1</v>
-      </c>
-      <c r="W9" s="16">
-        <v>1</v>
-      </c>
-      <c r="X9" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="19">
-        <f>SUMIF(B2:M21,"c",S2:AD21)</f>
-        <v>48</v>
-      </c>
-      <c r="Q10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="16">
-        <v>1</v>
-      </c>
-      <c r="T10" s="16">
-        <v>1</v>
-      </c>
-      <c r="U10" s="16">
-        <v>1</v>
-      </c>
-      <c r="V10" s="16">
-        <v>1</v>
-      </c>
-      <c r="W10" s="16">
-        <v>1</v>
-      </c>
-      <c r="X10" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="19">
-        <f>SUMIF(B2:M21,"d",S2:AD21)</f>
-        <v>48</v>
-      </c>
-      <c r="Q11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="16">
-        <v>1</v>
-      </c>
-      <c r="T11" s="16">
-        <v>1</v>
-      </c>
-      <c r="U11" s="16">
-        <v>1</v>
-      </c>
-      <c r="V11" s="16">
-        <v>1</v>
-      </c>
-      <c r="W11" s="16">
-        <v>1</v>
-      </c>
-      <c r="X11" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="20">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="19">
-        <f>SUMIF(B2:M21,"e",S2:AD21)</f>
-        <v>48</v>
-      </c>
-      <c r="Q12" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="16">
-        <v>1</v>
-      </c>
-      <c r="T12" s="16">
-        <v>1</v>
-      </c>
-      <c r="U12" s="16">
-        <v>1</v>
-      </c>
-      <c r="V12" s="16">
-        <v>1</v>
-      </c>
-      <c r="W12" s="16">
-        <v>1</v>
-      </c>
-      <c r="X12" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="16">
-        <v>1</v>
-      </c>
-      <c r="T13" s="16">
-        <v>1</v>
-      </c>
-      <c r="U13" s="16">
-        <v>1</v>
-      </c>
-      <c r="V13" s="16">
-        <v>1</v>
-      </c>
-      <c r="W13" s="16">
-        <v>1</v>
-      </c>
-      <c r="X13" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="S14" s="16">
-        <v>1</v>
-      </c>
-      <c r="T14" s="16">
-        <v>1</v>
-      </c>
-      <c r="U14" s="16">
-        <v>1</v>
-      </c>
-      <c r="V14" s="16">
-        <v>1</v>
-      </c>
-      <c r="W14" s="16">
-        <v>1</v>
-      </c>
-      <c r="X14" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" s="16">
-        <v>1</v>
-      </c>
-      <c r="T15" s="16">
-        <v>1</v>
-      </c>
-      <c r="U15" s="16">
-        <v>1</v>
-      </c>
-      <c r="V15" s="16">
-        <v>1</v>
-      </c>
-      <c r="W15" s="16">
-        <v>1</v>
-      </c>
-      <c r="X15" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="16">
-        <v>1</v>
-      </c>
-      <c r="T16" s="16">
-        <v>1</v>
-      </c>
-      <c r="U16" s="16">
-        <v>1</v>
-      </c>
-      <c r="V16" s="16">
-        <v>1</v>
-      </c>
-      <c r="W16" s="16">
-        <v>1</v>
-      </c>
-      <c r="X16" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="20">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="S17" s="16">
-        <v>1</v>
-      </c>
-      <c r="T17" s="16">
-        <v>1</v>
-      </c>
-      <c r="U17" s="16">
-        <v>1</v>
-      </c>
-      <c r="V17" s="16">
-        <v>1</v>
-      </c>
-      <c r="W17" s="16">
-        <v>1</v>
-      </c>
-      <c r="X17" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="20">
-        <v>17</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" s="16">
-        <v>1</v>
-      </c>
-      <c r="T18" s="16">
-        <v>1</v>
-      </c>
-      <c r="U18" s="16">
-        <v>1</v>
-      </c>
-      <c r="V18" s="16">
-        <v>1</v>
-      </c>
-      <c r="W18" s="16">
-        <v>1</v>
-      </c>
-      <c r="X18" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="20">
-        <v>18</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S19" s="16">
-        <v>1</v>
-      </c>
-      <c r="T19" s="16">
-        <v>1</v>
-      </c>
-      <c r="U19" s="16">
-        <v>1</v>
-      </c>
-      <c r="V19" s="16">
-        <v>1</v>
-      </c>
-      <c r="W19" s="16">
-        <v>1</v>
-      </c>
-      <c r="X19" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="A20" s="20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" s="16">
-        <v>1</v>
-      </c>
-      <c r="T20" s="16">
-        <v>1</v>
-      </c>
-      <c r="U20" s="16">
-        <v>1</v>
-      </c>
-      <c r="V20" s="16">
-        <v>1</v>
-      </c>
-      <c r="W20" s="16">
-        <v>1</v>
-      </c>
-      <c r="X20" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="20">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S21" s="16">
-        <v>1</v>
-      </c>
-      <c r="T21" s="16">
-        <v>1</v>
-      </c>
-      <c r="U21" s="16">
-        <v>1</v>
-      </c>
-      <c r="V21" s="16">
-        <v>1</v>
-      </c>
-      <c r="W21" s="16">
-        <v>1</v>
-      </c>
-      <c r="X21" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="F25" s="16"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="F26" s="16"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="F28" s="16"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
@@ -5042,15 +3311,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AA20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Y19"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5092,30 +3361,30 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="37" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -5124,26 +3393,26 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
@@ -5219,8 +3488,8 @@
       <c r="AA5" s="9"/>
     </row>
     <row r="6" spans="2:27" ht="22.7" customHeight="1" thickTop="1">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -5291,8 +3560,8 @@
       <c r="AA6" s="9"/>
     </row>
     <row r="7" spans="2:27" ht="22.35" customHeight="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
@@ -5361,8 +3630,8 @@
       <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="2:27" ht="22.35" customHeight="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="12" t="s">
         <v>22</v>
       </c>
@@ -5431,8 +3700,8 @@
       <c r="AA8" s="9"/>
     </row>
     <row r="9" spans="2:27" ht="22.7" customHeight="1" thickBot="1">
-      <c r="B9" s="34"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
@@ -5501,8 +3770,8 @@
       <c r="AA9" s="9"/>
     </row>
     <row r="10" spans="2:27" ht="22.7" customHeight="1" thickTop="1">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -5573,8 +3842,8 @@
       <c r="AA10" s="9"/>
     </row>
     <row r="11" spans="2:27" ht="22.35" customHeight="1">
-      <c r="B11" s="34"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="12" t="s">
         <v>25</v>
       </c>
@@ -5643,8 +3912,8 @@
       <c r="AA11" s="9"/>
     </row>
     <row r="12" spans="2:27" ht="22.35" customHeight="1">
-      <c r="B12" s="34"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="12" t="s">
         <v>26</v>
       </c>
@@ -5713,8 +3982,8 @@
       <c r="AA12" s="9"/>
     </row>
     <row r="13" spans="2:27" ht="22.7" customHeight="1" thickBot="1">
-      <c r="B13" s="34"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="12" t="s">
         <v>27</v>
       </c>
@@ -5783,8 +4052,8 @@
       <c r="AA13" s="9"/>
     </row>
     <row r="14" spans="2:27" ht="22.7" customHeight="1" thickTop="1">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -5855,8 +4124,8 @@
       <c r="AA14" s="9"/>
     </row>
     <row r="15" spans="2:27" ht="24" customHeight="1">
-      <c r="B15" s="34"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="12" t="s">
         <v>29</v>
       </c>
@@ -5925,8 +4194,8 @@
       <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="2:27" ht="22.35" customHeight="1">
-      <c r="B16" s="34"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="12" t="s">
         <v>30</v>
       </c>
@@ -5995,8 +4264,8 @@
       <c r="AA16" s="9"/>
     </row>
     <row r="17" spans="2:27" ht="22.7" customHeight="1" thickBot="1">
-      <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="12" t="s">
         <v>31</v>
       </c>
@@ -6147,20 +4416,1751 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="O3:X3"/>
     <mergeCell ref="E4:N4"/>
     <mergeCell ref="O4:X4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DBB3C6-5C92-414D-95CD-BACA3F7BEDEF}">
+  <dimension ref="A1:AD32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="4.28515625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" style="18" customWidth="1"/>
+    <col min="15" max="17" width="4.7109375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" style="19" customWidth="1"/>
+    <col min="19" max="30" width="3.7109375" style="18" customWidth="1"/>
+    <col min="31" max="16384" width="8.85546875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="13" customFormat="1">
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="16">
+        <v>1</v>
+      </c>
+      <c r="T2" s="16">
+        <v>1</v>
+      </c>
+      <c r="U2" s="16">
+        <v>1</v>
+      </c>
+      <c r="V2" s="16">
+        <v>1</v>
+      </c>
+      <c r="W2" s="16">
+        <v>1</v>
+      </c>
+      <c r="X2" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="16">
+        <v>1</v>
+      </c>
+      <c r="T3" s="16">
+        <v>1</v>
+      </c>
+      <c r="U3" s="16">
+        <v>1</v>
+      </c>
+      <c r="V3" s="16">
+        <v>1</v>
+      </c>
+      <c r="W3" s="16">
+        <v>1</v>
+      </c>
+      <c r="X3" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="16">
+        <v>1</v>
+      </c>
+      <c r="T4" s="16">
+        <v>1</v>
+      </c>
+      <c r="U4" s="16">
+        <v>1</v>
+      </c>
+      <c r="V4" s="16">
+        <v>1</v>
+      </c>
+      <c r="W4" s="16">
+        <v>1</v>
+      </c>
+      <c r="X4" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="16">
+        <v>1</v>
+      </c>
+      <c r="T5" s="16">
+        <v>1</v>
+      </c>
+      <c r="U5" s="16">
+        <v>1</v>
+      </c>
+      <c r="V5" s="16">
+        <v>1</v>
+      </c>
+      <c r="W5" s="16">
+        <v>1</v>
+      </c>
+      <c r="X5" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="16">
+        <v>1</v>
+      </c>
+      <c r="T6" s="16">
+        <v>1</v>
+      </c>
+      <c r="U6" s="16">
+        <v>1</v>
+      </c>
+      <c r="V6" s="16">
+        <v>1</v>
+      </c>
+      <c r="W6" s="16">
+        <v>1</v>
+      </c>
+      <c r="X6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="16">
+        <v>1</v>
+      </c>
+      <c r="T7" s="16">
+        <v>1</v>
+      </c>
+      <c r="U7" s="16">
+        <v>1</v>
+      </c>
+      <c r="V7" s="16">
+        <v>1</v>
+      </c>
+      <c r="W7" s="16">
+        <v>1</v>
+      </c>
+      <c r="X7" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="19">
+        <f>SUMIF(B2:M21,"a",S2:AD21)</f>
+        <v>48</v>
+      </c>
+      <c r="Q8" s="19">
+        <f>48-P8</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <v>1</v>
+      </c>
+      <c r="T8" s="16">
+        <v>1</v>
+      </c>
+      <c r="U8" s="16">
+        <v>1</v>
+      </c>
+      <c r="V8" s="16">
+        <v>1</v>
+      </c>
+      <c r="W8" s="16">
+        <v>1</v>
+      </c>
+      <c r="X8" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="19">
+        <f>SUMIF(B2:M21,"b",S2:AD21)</f>
+        <v>48</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" ref="Q9:Q12" si="0">48-P9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>1</v>
+      </c>
+      <c r="T9" s="16">
+        <v>1</v>
+      </c>
+      <c r="U9" s="16">
+        <v>1</v>
+      </c>
+      <c r="V9" s="16">
+        <v>1</v>
+      </c>
+      <c r="W9" s="16">
+        <v>1</v>
+      </c>
+      <c r="X9" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="19">
+        <f>SUMIF(B2:M21,"c",S2:AD21)</f>
+        <v>48</v>
+      </c>
+      <c r="Q10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="16">
+        <v>1</v>
+      </c>
+      <c r="T10" s="16">
+        <v>1</v>
+      </c>
+      <c r="U10" s="16">
+        <v>1</v>
+      </c>
+      <c r="V10" s="16">
+        <v>1</v>
+      </c>
+      <c r="W10" s="16">
+        <v>1</v>
+      </c>
+      <c r="X10" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="19">
+        <f>SUMIF(B2:M21,"d",S2:AD21)</f>
+        <v>48</v>
+      </c>
+      <c r="Q11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <v>1</v>
+      </c>
+      <c r="T11" s="16">
+        <v>1</v>
+      </c>
+      <c r="U11" s="16">
+        <v>1</v>
+      </c>
+      <c r="V11" s="16">
+        <v>1</v>
+      </c>
+      <c r="W11" s="16">
+        <v>1</v>
+      </c>
+      <c r="X11" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="19">
+        <f>SUMIF(B2:M21,"e",S2:AD21)</f>
+        <v>48</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <v>1</v>
+      </c>
+      <c r="T12" s="16">
+        <v>1</v>
+      </c>
+      <c r="U12" s="16">
+        <v>1</v>
+      </c>
+      <c r="V12" s="16">
+        <v>1</v>
+      </c>
+      <c r="W12" s="16">
+        <v>1</v>
+      </c>
+      <c r="X12" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="16">
+        <v>1</v>
+      </c>
+      <c r="T13" s="16">
+        <v>1</v>
+      </c>
+      <c r="U13" s="16">
+        <v>1</v>
+      </c>
+      <c r="V13" s="16">
+        <v>1</v>
+      </c>
+      <c r="W13" s="16">
+        <v>1</v>
+      </c>
+      <c r="X13" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="16">
+        <v>1</v>
+      </c>
+      <c r="T14" s="16">
+        <v>1</v>
+      </c>
+      <c r="U14" s="16">
+        <v>1</v>
+      </c>
+      <c r="V14" s="16">
+        <v>1</v>
+      </c>
+      <c r="W14" s="16">
+        <v>1</v>
+      </c>
+      <c r="X14" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="16">
+        <v>1</v>
+      </c>
+      <c r="T15" s="16">
+        <v>1</v>
+      </c>
+      <c r="U15" s="16">
+        <v>1</v>
+      </c>
+      <c r="V15" s="16">
+        <v>1</v>
+      </c>
+      <c r="W15" s="16">
+        <v>1</v>
+      </c>
+      <c r="X15" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="16">
+        <v>1</v>
+      </c>
+      <c r="T16" s="16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="16">
+        <v>1</v>
+      </c>
+      <c r="V16" s="16">
+        <v>1</v>
+      </c>
+      <c r="W16" s="16">
+        <v>1</v>
+      </c>
+      <c r="X16" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="16">
+        <v>1</v>
+      </c>
+      <c r="T17" s="16">
+        <v>1</v>
+      </c>
+      <c r="U17" s="16">
+        <v>1</v>
+      </c>
+      <c r="V17" s="16">
+        <v>1</v>
+      </c>
+      <c r="W17" s="16">
+        <v>1</v>
+      </c>
+      <c r="X17" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" s="16">
+        <v>1</v>
+      </c>
+      <c r="T18" s="16">
+        <v>1</v>
+      </c>
+      <c r="U18" s="16">
+        <v>1</v>
+      </c>
+      <c r="V18" s="16">
+        <v>1</v>
+      </c>
+      <c r="W18" s="16">
+        <v>1</v>
+      </c>
+      <c r="X18" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="16">
+        <v>1</v>
+      </c>
+      <c r="T19" s="16">
+        <v>1</v>
+      </c>
+      <c r="U19" s="16">
+        <v>1</v>
+      </c>
+      <c r="V19" s="16">
+        <v>1</v>
+      </c>
+      <c r="W19" s="16">
+        <v>1</v>
+      </c>
+      <c r="X19" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="16">
+        <v>1</v>
+      </c>
+      <c r="T20" s="16">
+        <v>1</v>
+      </c>
+      <c r="U20" s="16">
+        <v>1</v>
+      </c>
+      <c r="V20" s="16">
+        <v>1</v>
+      </c>
+      <c r="W20" s="16">
+        <v>1</v>
+      </c>
+      <c r="X20" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" s="16">
+        <v>1</v>
+      </c>
+      <c r="T21" s="16">
+        <v>1</v>
+      </c>
+      <c r="U21" s="16">
+        <v>1</v>
+      </c>
+      <c r="V21" s="16">
+        <v>1</v>
+      </c>
+      <c r="W21" s="16">
+        <v>1</v>
+      </c>
+      <c r="X21" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="F25" s="16"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="F26" s="16"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="F28" s="16"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>